--- a/Чек-листы, тест-кейсы, баг-репорты.xlsx
+++ b/Чек-листы, тест-кейсы, баг-репорты.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Desktop\учеба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3A11E1-79FA-4984-BA47-516521B341FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B11ABC7-6B32-4A68-92AE-42A5C7B56998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{8B737C09-A6EB-43F1-A024-C65F1610E05B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{8B737C09-A6EB-43F1-A024-C65F1610E05B}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-листы" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="245">
   <si>
     <t>5. Меняем пароль</t>
   </si>
@@ -641,27 +641,6 @@
     <t>Ограничение по количеству вводимых чисел</t>
   </si>
   <si>
-    <t xml:space="preserve">1. В поле "телефон или почта" вводим корректные данные. Нажимаем "Войти". </t>
-  </si>
-  <si>
-    <t>2. Выбираем "забыли пароль или не установили" Выбираем "восстановить пароль".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Подтверждаем, что мы владелец аккаунта, нажав на кнопку "продолжить". Вводим последние 4 цифры номера/смс </t>
-  </si>
-  <si>
-    <t>4. Выбираем "Подать заявку с подтверждением личности, в поле "доступный номер телефона" - указываем номер телефона</t>
-  </si>
-  <si>
-    <t>5.  В всплывающем окне выбираем "У меня нет доступа к почте"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. На окне с "Сфотографируйтесь на фоне заявки" - прикрепляем фото. </t>
-  </si>
-  <si>
-    <t>Диагностика фотографии принимает фото, пропуская ее</t>
-  </si>
-  <si>
     <t>OC win 11
 Yandex 23.7.4.971 (64-bit)</t>
   </si>
@@ -684,25 +663,13 @@
     <t xml:space="preserve">Диагностика фотографии при добавлении невалидного фота в окне "Сделайте цветное фото док-а, удостоверяющего личность" </t>
   </si>
   <si>
-    <t>6. На окне с "Сфотографируйтесь на фоне заявки" - добавляем фото, нажимаем "продолжить"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Когда добавляем невалидную фотографию в разделе - восстановление, "подать заявку с подтверждением личности" </t>
-  </si>
-  <si>
-    <t>7. На окне "Сделайте цветное фото док-а, удостоверяющего личность" - добавляем невалидную фотографию</t>
   </si>
   <si>
     <t>https://sun9-37.userapi.com/impg/GCS7nuIqQeEsdS72STz_CL5D_H7AZrAjeBZ40w/v65pCxI50YI.jpg?size=460x568&amp;quality=96&amp;sign=dd5187936551abde7b4e7a64c60b89a7&amp;type=album</t>
   </si>
   <si>
-    <t>Отсутсвует максимальная длина полей "телефон или почта"</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Открываем ссылку. </t>
-  </si>
-  <si>
-    <t>2. В поле "телефон или почта" вводим символы</t>
   </si>
   <si>
     <t>Ограничение по кол-ву символов</t>
@@ -723,16 +690,10 @@
     <t>Наличие сломанных страниц на проверяемом сайте</t>
   </si>
   <si>
-    <t>1. Проверяем наличие сломанных страниц VK на "https://validator.w3.org"</t>
-  </si>
-  <si>
     <t>https://sun9-68.userapi.com/impg/7LfM4jNUezu3ht7w852UZ9Pim97pI9biqXdVdQ/erFDAap4i6I.jpg?size=604x69&amp;quality=96&amp;sign=beaa9cfeed6469c52854aebef2e3b2a8&amp;type=album</t>
   </si>
   <si>
     <t>Не пройдена проверка скорости проверяемым сайтом</t>
-  </si>
-  <si>
-    <t>1. Проверяем скорость, производительность VK на "https://pagespeed.web.dev"</t>
   </si>
   <si>
     <t>https://pagespeed.web.dev/analysis/https-vk-com/cza3hbgztc?form_factor=desktop</t>
@@ -776,12 +737,124 @@
   <si>
     <t>Вводим ссылку в адрес, переходим на сайт</t>
   </si>
+  <si>
+    <t>Отсутсвует максимальная длина полей "телефон или почта" в разделе вход Вк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В поле "телефон или почта" вести корректные данные. Нажать "Войти". </t>
+  </si>
+  <si>
+    <t>2. Выбрать "забыли пароль или не установили". Выбрать "восстановить пароль".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Подтвердить что мы владелец аккаунта, нажать на кнопку "продолжить". Ввести последние 4 цифры номера/смс </t>
+  </si>
+  <si>
+    <t>4. Выбрать "Подать заявку с подтверждением личности, в поле "доступный номер телефона" - указать номер телефона</t>
+  </si>
+  <si>
+    <t>5.  В всплывающем окне выбрать "У меня нет доступа к почте"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. На окне с "Сфотографируйтесь на фоне заявки" - прикрепить фото. </t>
+  </si>
+  <si>
+    <t>2. В поле "телефон или почта" вести символы</t>
+  </si>
+  <si>
+    <t>2. Выбрать "забыли пароль или не установили" Выбрать "восстановить пароль".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Подтвердить, что мы владелец аккаунта, нажав на кнопку "продолжить". Вести последние 4 цифры номера/смс </t>
+  </si>
+  <si>
+    <t>6. На окне с "Сфотографируйтесь на фоне заявки" - добавить фото, нажать "продолжить"</t>
+  </si>
+  <si>
+    <t>7. На окне "Сделайте цветное фото док-а, удостоверяющего личность" - добавить невалидную фотографию</t>
+  </si>
+  <si>
+    <t>Диагностика фотографии принимает фото, пропускает ее</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Проверить наличие сломанных страниц VK на "</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>https://validator.w3.org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Проверить скорость, производительность VK на "</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>https://pagespeed.web.dev</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -903,6 +976,26 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1472,9 +1565,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1483,9 +1573,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1754,6 +1841,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1798,6 +1888,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1868,9 +1973,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="17" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1895,21 +1997,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1928,6 +2015,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,17 +2039,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2296,11 +2389,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="76">
@@ -2347,11 +2440,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="76">
@@ -2409,11 +2502,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="76">
@@ -2460,11 +2553,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="76">
@@ -2500,11 +2593,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="76">
@@ -2551,11 +2644,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="77">
@@ -7724,257 +7817,257 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="144">
+      <c r="A2" s="142">
         <v>1</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158" t="s">
+      <c r="A3" s="155"/>
+      <c r="B3" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="203" t="s">
-        <v>236</v>
+      <c r="D3" s="202" t="s">
+        <v>223</v>
       </c>
-      <c r="E3" s="138"/>
+      <c r="E3" s="136"/>
       <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="191" t="s">
+      <c r="G3" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="165" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="157"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="145"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="194"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="167"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="165"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="157"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="145"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="194"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="167"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="165"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="157"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="145"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="143"/>
       <c r="F6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="194"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="167"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="157"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="139"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="195"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="168"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="166"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="157"/>
-      <c r="B8" s="160" t="s">
+      <c r="A8" s="155"/>
+      <c r="B8" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="138"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="197" t="s">
+      <c r="G8" s="196" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="163" t="s">
+      <c r="H8" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="169" t="s">
+      <c r="I8" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="157"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="139"/>
+      <c r="A9" s="155"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="198"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="168"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="166"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="157"/>
-      <c r="B10" s="161" t="s">
+      <c r="A10" s="155"/>
+      <c r="B10" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="204"/>
-      <c r="E10" s="138"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="136"/>
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="191" t="s">
+      <c r="G10" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="137" t="s">
+      <c r="H10" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="169" t="s">
+      <c r="I10" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="157"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="145"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="143"/>
       <c r="F11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="192"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="167"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="165"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="157"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="145"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="143"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="192"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="167"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="165"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="157"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="139"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="137"/>
       <c r="F13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="168"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="166"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="208">
+      <c r="A14" s="212">
         <v>2</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="209"/>
-      <c r="B15" s="210" t="s">
+      <c r="A15" s="213"/>
+      <c r="B15" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="203" t="s">
-        <v>237</v>
+      <c r="D15" s="202" t="s">
+        <v>224</v>
       </c>
-      <c r="E15" s="138"/>
+      <c r="E15" s="136"/>
       <c r="F15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="138" t="s">
+      <c r="G15" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="138" t="s">
+      <c r="H15" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="169" t="s">
+      <c r="I15" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="209"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="139"/>
+      <c r="A16" s="213"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="137"/>
       <c r="F16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="168"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="166"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="209"/>
+      <c r="A17" s="213"/>
       <c r="B17" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="204"/>
+      <c r="D17" s="203"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21" t="s">
         <v>132</v>
@@ -7990,14 +8083,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="209"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="204"/>
+      <c r="D18" s="203"/>
       <c r="E18" s="20"/>
       <c r="F18" s="16" t="s">
         <v>137</v>
@@ -8013,439 +8106,439 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="209"/>
-      <c r="B19" s="211" t="s">
+      <c r="A19" s="213"/>
+      <c r="B19" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="180" t="s">
+      <c r="C19" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="138"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="136"/>
       <c r="F19" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="180"/>
-      <c r="H19" s="233" t="s">
+      <c r="G19" s="178"/>
+      <c r="H19" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="169" t="s">
+      <c r="I19" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="209"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="139"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="137"/>
       <c r="F20" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="181"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="168"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="237"/>
+      <c r="I20" s="166"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="208">
+      <c r="A21" s="212">
         <v>3</v>
       </c>
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="220" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="218"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="222"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="209"/>
-      <c r="B22" s="202" t="s">
+      <c r="A22" s="213"/>
+      <c r="B22" s="201" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="150" t="s">
+      <c r="E22" s="148" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="145" t="s">
+      <c r="G22" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="184" t="s">
+      <c r="H22" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="167" t="s">
+      <c r="I22" s="165" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="209"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="156"/>
-      <c r="E23" s="151"/>
+      <c r="A23" s="213"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="154"/>
+      <c r="E23" s="149"/>
       <c r="F23" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="145"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="168"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="166"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="209"/>
-      <c r="B24" s="159" t="s">
+      <c r="A24" s="213"/>
+      <c r="B24" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="199" t="s">
+      <c r="E24" s="198" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="145"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="183" t="s">
+      <c r="G24" s="143"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="181" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="209"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="153"/>
-      <c r="E25" s="200"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="151"/>
+      <c r="E25" s="199"/>
       <c r="F25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="145"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="171"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="169"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="209"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="153"/>
-      <c r="E26" s="200"/>
+      <c r="A26" s="213"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="151"/>
+      <c r="E26" s="199"/>
       <c r="F26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="145"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="171"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="169"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="209"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="153"/>
-      <c r="E27" s="200"/>
+      <c r="A27" s="213"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="151"/>
+      <c r="E27" s="199"/>
       <c r="F27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="145"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="171"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="169"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="209"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="154"/>
-      <c r="E28" s="201"/>
+      <c r="A28" s="213"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="152"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="145"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="171"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="169"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="209"/>
-      <c r="B29" s="173" t="s">
+      <c r="A29" s="213"/>
+      <c r="B29" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="178" t="s">
+      <c r="C29" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="138" t="s">
+      <c r="E29" s="136" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="145"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="169" t="s">
+      <c r="G29" s="143"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="209"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="151"/>
-      <c r="E30" s="145"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="149"/>
+      <c r="E30" s="143"/>
       <c r="F30" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="145"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="168"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="166"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="209"/>
-      <c r="B31" s="175" t="s">
+      <c r="A31" s="213"/>
+      <c r="B31" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="138" t="s">
+      <c r="C31" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="145"/>
+      <c r="E31" s="143"/>
       <c r="F31" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="145"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="169" t="s">
+      <c r="G31" s="143"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="209"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="145"/>
-      <c r="E32" s="145"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="143"/>
+      <c r="E32" s="143"/>
       <c r="F32" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="145"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="167"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="165"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="209"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="139"/>
-      <c r="E33" s="145"/>
+      <c r="A33" s="213"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="137"/>
+      <c r="E33" s="143"/>
       <c r="F33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="145"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="168"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="166"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="209"/>
-      <c r="B34" s="173" t="s">
+      <c r="A34" s="213"/>
+      <c r="B34" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="145"/>
+      <c r="E34" s="143"/>
       <c r="F34" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="145"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="169" t="s">
+      <c r="G34" s="143"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="209"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="150"/>
-      <c r="E35" s="145"/>
+      <c r="A35" s="213"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="148"/>
+      <c r="E35" s="143"/>
       <c r="F35" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="145"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="167"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="165"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="209"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="150"/>
-      <c r="E36" s="145"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="148"/>
+      <c r="E36" s="143"/>
       <c r="F36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="145"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="167"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="165"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="209"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="150"/>
-      <c r="E37" s="145"/>
+      <c r="A37" s="213"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="148"/>
+      <c r="E37" s="143"/>
       <c r="F37" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="145"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="167"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="165"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="209"/>
-      <c r="B38" s="179"/>
-      <c r="C38" s="151"/>
-      <c r="E38" s="145"/>
+      <c r="A38" s="213"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="149"/>
+      <c r="E38" s="143"/>
       <c r="F38" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="145"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="168"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="166"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="209"/>
-      <c r="B39" s="175" t="s">
+      <c r="A39" s="213"/>
+      <c r="B39" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="138" t="s">
+      <c r="C39" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="145"/>
+      <c r="E39" s="143"/>
       <c r="F39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="145"/>
-      <c r="H39" s="185"/>
-      <c r="I39" s="169" t="s">
+      <c r="G39" s="143"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="209"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="145"/>
-      <c r="E40" s="145"/>
+      <c r="A40" s="213"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="143"/>
+      <c r="E40" s="143"/>
       <c r="F40" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="145"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="167"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="165"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="209"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="145"/>
-      <c r="E41" s="145"/>
+      <c r="A41" s="213"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="143"/>
+      <c r="E41" s="143"/>
       <c r="F41" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="145"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="167"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="165"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="209"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="145"/>
-      <c r="E42" s="145"/>
+      <c r="A42" s="213"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="143"/>
+      <c r="E42" s="143"/>
       <c r="F42" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="145"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="167"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="165"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="209"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="145"/>
-      <c r="E43" s="145"/>
+      <c r="A43" s="213"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="143"/>
+      <c r="E43" s="143"/>
       <c r="F43" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="139"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="168"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="166"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="209"/>
-      <c r="B44" s="186" t="s">
+      <c r="A44" s="213"/>
+      <c r="B44" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="180" t="s">
+      <c r="C44" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="145"/>
+      <c r="E44" s="143"/>
       <c r="F44" s="40" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="41"/>
-      <c r="H44" s="184" t="s">
+      <c r="H44" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="183" t="s">
+      <c r="I44" s="181" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="209"/>
-      <c r="B45" s="187"/>
-      <c r="C45" s="181"/>
-      <c r="E45" s="145"/>
+      <c r="A45" s="213"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="179"/>
+      <c r="E45" s="143"/>
       <c r="F45" s="42" t="s">
         <v>67</v>
       </c>
       <c r="G45" s="43">
         <v>522258</v>
       </c>
-      <c r="H45" s="185"/>
-      <c r="I45" s="172"/>
+      <c r="H45" s="183"/>
+      <c r="I45" s="170"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="209"/>
-      <c r="B46" s="140" t="s">
+      <c r="A46" s="213"/>
+      <c r="B46" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="138" t="s">
+      <c r="C46" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="145"/>
+      <c r="E46" s="143"/>
       <c r="F46" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="206" t="s">
+      <c r="G46" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="185"/>
-      <c r="I46" s="183" t="s">
+      <c r="H46" s="183"/>
+      <c r="I46" s="181" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="209"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="139"/>
-      <c r="E47" s="139"/>
+      <c r="A47" s="213"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="137"/>
+      <c r="E47" s="137"/>
       <c r="F47" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="207"/>
-      <c r="H47" s="185"/>
-      <c r="I47" s="172"/>
+      <c r="G47" s="211"/>
+      <c r="H47" s="183"/>
+      <c r="I47" s="170"/>
     </row>
     <row r="48" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="209"/>
+      <c r="A48" s="213"/>
       <c r="B48" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="138" t="s">
+      <c r="E48" s="136" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="46" t="s">
@@ -8454,404 +8547,404 @@
       <c r="G48" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="185"/>
+      <c r="H48" s="183"/>
       <c r="I48" s="48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="209"/>
+      <c r="A49" s="213"/>
       <c r="B49" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="139"/>
+      <c r="E49" s="137"/>
       <c r="F49" s="50" t="s">
         <v>78</v>
       </c>
       <c r="G49" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="H49" s="185"/>
+      <c r="H49" s="183"/>
       <c r="I49" s="48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="209"/>
-      <c r="B50" s="186" t="s">
+      <c r="A50" s="213"/>
+      <c r="B50" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="180" t="s">
+      <c r="C50" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="180" t="s">
+      <c r="E50" s="178" t="s">
         <v>81</v>
       </c>
       <c r="F50" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="184" t="s">
+      <c r="G50" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="241" t="s">
+      <c r="H50" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="169" t="s">
+      <c r="I50" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="209"/>
-      <c r="B51" s="229"/>
-      <c r="C51" s="196"/>
-      <c r="E51" s="196"/>
+      <c r="A51" s="213"/>
+      <c r="B51" s="189"/>
+      <c r="C51" s="195"/>
+      <c r="E51" s="195"/>
       <c r="F51" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="185"/>
-      <c r="H51" s="242"/>
-      <c r="I51" s="167"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="209"/>
+      <c r="I51" s="165"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="209"/>
-      <c r="B52" s="229"/>
-      <c r="C52" s="196"/>
-      <c r="E52" s="196"/>
+      <c r="A52" s="213"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="195"/>
+      <c r="E52" s="195"/>
       <c r="F52" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="185"/>
-      <c r="H52" s="242"/>
-      <c r="I52" s="167"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="209"/>
+      <c r="I52" s="165"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="209"/>
-      <c r="B53" s="229"/>
-      <c r="C53" s="196"/>
-      <c r="E53" s="196"/>
+      <c r="A53" s="213"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="195"/>
+      <c r="E53" s="195"/>
       <c r="F53" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="185"/>
-      <c r="H53" s="242"/>
-      <c r="I53" s="167"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="209"/>
+      <c r="I53" s="165"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="209"/>
-      <c r="B54" s="229"/>
-      <c r="C54" s="196"/>
-      <c r="E54" s="196"/>
+      <c r="A54" s="213"/>
+      <c r="B54" s="189"/>
+      <c r="C54" s="195"/>
+      <c r="E54" s="195"/>
       <c r="F54" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="185"/>
-      <c r="H54" s="242"/>
-      <c r="I54" s="167"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="165"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="209"/>
-      <c r="B55" s="187"/>
-      <c r="C55" s="181"/>
-      <c r="E55" s="181"/>
+      <c r="A55" s="213"/>
+      <c r="B55" s="185"/>
+      <c r="C55" s="179"/>
+      <c r="E55" s="179"/>
       <c r="F55" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="185"/>
-      <c r="H55" s="242"/>
-      <c r="I55" s="168"/>
+      <c r="G55" s="183"/>
+      <c r="H55" s="209"/>
+      <c r="I55" s="166"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="209"/>
-      <c r="B56" s="140" t="s">
+      <c r="A56" s="213"/>
+      <c r="B56" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="138" t="s">
+      <c r="C56" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="138" t="s">
+      <c r="E56" s="136" t="s">
         <v>91</v>
       </c>
       <c r="F56" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="185"/>
-      <c r="H56" s="242"/>
-      <c r="I56" s="169" t="s">
+      <c r="G56" s="183"/>
+      <c r="H56" s="209"/>
+      <c r="I56" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="209"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="145"/>
-      <c r="E57" s="145"/>
+      <c r="A57" s="213"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="143"/>
+      <c r="E57" s="143"/>
       <c r="F57" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G57" s="185"/>
-      <c r="H57" s="242"/>
-      <c r="I57" s="167"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="209"/>
+      <c r="I57" s="165"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="209"/>
-      <c r="B58" s="182"/>
-      <c r="C58" s="139"/>
-      <c r="E58" s="145"/>
+      <c r="A58" s="213"/>
+      <c r="B58" s="180"/>
+      <c r="C58" s="137"/>
+      <c r="E58" s="143"/>
       <c r="F58" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="190"/>
-      <c r="H58" s="242"/>
-      <c r="I58" s="168"/>
+      <c r="G58" s="188"/>
+      <c r="H58" s="209"/>
+      <c r="I58" s="166"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="209"/>
-      <c r="B59" s="223" t="s">
+      <c r="A59" s="213"/>
+      <c r="B59" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="219" t="s">
+      <c r="C59" s="223" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="213"/>
+      <c r="E59" s="217"/>
       <c r="F59" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="221" t="s">
+      <c r="G59" s="225" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="180" t="s">
+      <c r="H59" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="169" t="s">
+      <c r="I59" s="167" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="209"/>
-      <c r="B60" s="224"/>
-      <c r="C60" s="220"/>
-      <c r="E60" s="213"/>
+      <c r="A60" s="213"/>
+      <c r="B60" s="228"/>
+      <c r="C60" s="224"/>
+      <c r="E60" s="217"/>
       <c r="F60" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="222"/>
-      <c r="H60" s="196"/>
-      <c r="I60" s="167"/>
+      <c r="G60" s="226"/>
+      <c r="H60" s="195"/>
+      <c r="I60" s="165"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="209"/>
-      <c r="B61" s="238" t="s">
+      <c r="A61" s="213"/>
+      <c r="B61" s="205" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="152" t="s">
+      <c r="C61" s="150" t="s">
         <v>100</v>
       </c>
       <c r="D61" s="15"/>
-      <c r="E61" s="138" t="s">
+      <c r="E61" s="136" t="s">
         <v>101</v>
       </c>
       <c r="F61" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="225" t="s">
+      <c r="G61" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="138" t="s">
+      <c r="H61" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="I61" s="226" t="s">
+      <c r="I61" s="230" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="209"/>
-      <c r="B62" s="239"/>
-      <c r="C62" s="153"/>
+      <c r="A62" s="213"/>
+      <c r="B62" s="206"/>
+      <c r="C62" s="151"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="145"/>
+      <c r="E62" s="143"/>
       <c r="F62" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="153"/>
-      <c r="H62" s="145"/>
-      <c r="I62" s="227"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="143"/>
+      <c r="I62" s="231"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="209"/>
-      <c r="B63" s="239"/>
-      <c r="C63" s="153"/>
+      <c r="A63" s="213"/>
+      <c r="B63" s="206"/>
+      <c r="C63" s="151"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="145"/>
+      <c r="E63" s="143"/>
       <c r="F63" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="153"/>
-      <c r="H63" s="145"/>
-      <c r="I63" s="227"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="143"/>
+      <c r="I63" s="231"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="209"/>
-      <c r="B64" s="240"/>
-      <c r="C64" s="154"/>
-      <c r="E64" s="213"/>
+      <c r="A64" s="213"/>
+      <c r="B64" s="207"/>
+      <c r="C64" s="152"/>
+      <c r="E64" s="217"/>
       <c r="F64" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="G64" s="154"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="228"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="143"/>
+      <c r="I64" s="232"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="209"/>
-      <c r="B65" s="214" t="s">
+      <c r="A65" s="213"/>
+      <c r="B65" s="218" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="180" t="s">
+      <c r="C65" s="178" t="s">
         <v>126</v>
       </c>
       <c r="D65" s="28"/>
-      <c r="E65" s="145"/>
+      <c r="E65" s="143"/>
       <c r="F65" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="235" t="s">
+      <c r="G65" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="H65" s="145"/>
-      <c r="I65" s="236" t="s">
+      <c r="H65" s="143"/>
+      <c r="I65" s="239" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="209"/>
-      <c r="B66" s="215"/>
-      <c r="C66" s="196"/>
+      <c r="A66" s="213"/>
+      <c r="B66" s="219"/>
+      <c r="C66" s="195"/>
       <c r="D66" s="28"/>
-      <c r="E66" s="145"/>
+      <c r="E66" s="143"/>
       <c r="F66" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="196"/>
-      <c r="H66" s="145"/>
-      <c r="I66" s="237"/>
+      <c r="G66" s="195"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="240"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="209"/>
-      <c r="B67" s="215"/>
-      <c r="C67" s="196"/>
+      <c r="A67" s="213"/>
+      <c r="B67" s="219"/>
+      <c r="C67" s="195"/>
       <c r="D67" s="28"/>
-      <c r="E67" s="145"/>
+      <c r="E67" s="143"/>
       <c r="F67" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G67" s="196"/>
-      <c r="H67" s="145"/>
-      <c r="I67" s="237"/>
+      <c r="G67" s="195"/>
+      <c r="H67" s="143"/>
+      <c r="I67" s="240"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="209"/>
-      <c r="B68" s="215"/>
-      <c r="C68" s="196"/>
+      <c r="A68" s="213"/>
+      <c r="B68" s="219"/>
+      <c r="C68" s="195"/>
       <c r="D68" s="28"/>
-      <c r="E68" s="145"/>
+      <c r="E68" s="143"/>
       <c r="F68" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="G68" s="196"/>
-      <c r="H68" s="145"/>
-      <c r="I68" s="237"/>
+      <c r="G68" s="195"/>
+      <c r="H68" s="143"/>
+      <c r="I68" s="240"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="142">
+      <c r="A69" s="140">
         <v>4</v>
       </c>
-      <c r="B69" s="230" t="s">
+      <c r="B69" s="233" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="231"/>
-      <c r="D69" s="231"/>
-      <c r="E69" s="231"/>
-      <c r="F69" s="231"/>
-      <c r="G69" s="231"/>
-      <c r="H69" s="231"/>
-      <c r="I69" s="232"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="234"/>
+      <c r="F69" s="234"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="234"/>
+      <c r="I69" s="235"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="143"/>
-      <c r="B70" s="188" t="s">
+      <c r="A70" s="141"/>
+      <c r="B70" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="145" t="s">
+      <c r="C70" s="143" t="s">
         <v>150</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" s="145"/>
+      <c r="E70" s="143"/>
       <c r="F70" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G70" s="153" t="s">
+      <c r="G70" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="138" t="s">
+      <c r="H70" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="I70" s="171" t="s">
+      <c r="I70" s="169" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="143"/>
-      <c r="B71" s="188"/>
-      <c r="C71" s="145"/>
-      <c r="E71" s="145"/>
+      <c r="A71" s="141"/>
+      <c r="B71" s="186"/>
+      <c r="C71" s="143"/>
+      <c r="E71" s="143"/>
       <c r="F71" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="G71" s="153"/>
-      <c r="H71" s="145"/>
-      <c r="I71" s="171"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="169"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="143"/>
-      <c r="B72" s="188"/>
-      <c r="C72" s="145"/>
-      <c r="E72" s="145"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="186"/>
+      <c r="C72" s="143"/>
+      <c r="E72" s="143"/>
       <c r="F72" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="G72" s="153"/>
-      <c r="H72" s="145"/>
-      <c r="I72" s="171"/>
+      <c r="G72" s="151"/>
+      <c r="H72" s="143"/>
+      <c r="I72" s="169"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="143"/>
-      <c r="B73" s="188"/>
-      <c r="C73" s="145"/>
-      <c r="E73" s="145"/>
+      <c r="A73" s="141"/>
+      <c r="B73" s="186"/>
+      <c r="C73" s="143"/>
+      <c r="E73" s="143"/>
       <c r="F73" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="G73" s="153"/>
-      <c r="H73" s="145"/>
-      <c r="I73" s="171"/>
+      <c r="G73" s="151"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="169"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="143"/>
-      <c r="B74" s="189"/>
-      <c r="C74" s="139"/>
-      <c r="E74" s="139"/>
+      <c r="A74" s="141"/>
+      <c r="B74" s="187"/>
+      <c r="C74" s="137"/>
+      <c r="E74" s="137"/>
       <c r="F74" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G74" s="154"/>
-      <c r="H74" s="139"/>
-      <c r="I74" s="172"/>
+      <c r="G74" s="152"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="170"/>
     </row>
     <row r="75" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="143"/>
+      <c r="A75" s="141"/>
       <c r="B75" s="58" t="s">
         <v>149</v>
       </c>
@@ -8861,7 +8954,7 @@
       <c r="D75" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E75" s="138" t="s">
+      <c r="E75" s="136" t="s">
         <v>154</v>
       </c>
       <c r="F75" s="60" t="s">
@@ -8878,150 +8971,150 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="143"/>
-      <c r="B76" s="140" t="s">
+      <c r="A76" s="141"/>
+      <c r="B76" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="138" t="s">
+      <c r="C76" s="136" t="s">
         <v>158</v>
       </c>
-      <c r="E76" s="145"/>
+      <c r="E76" s="143"/>
       <c r="F76" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="G76" s="206"/>
-      <c r="H76" s="138" t="s">
+      <c r="G76" s="210"/>
+      <c r="H76" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="I76" s="167" t="s">
+      <c r="I76" s="165" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="144"/>
-      <c r="B77" s="182"/>
-      <c r="C77" s="139"/>
+      <c r="A77" s="142"/>
+      <c r="B77" s="180"/>
+      <c r="C77" s="137"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="139"/>
+      <c r="E77" s="137"/>
       <c r="F77" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G77" s="207"/>
-      <c r="H77" s="139"/>
-      <c r="I77" s="168"/>
+      <c r="G77" s="211"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="166"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="142">
+      <c r="A78" s="140">
         <v>5</v>
       </c>
-      <c r="B78" s="133" t="s">
+      <c r="B78" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="134"/>
-      <c r="D78" s="135"/>
-      <c r="E78" s="135"/>
-      <c r="F78" s="135"/>
-      <c r="G78" s="134"/>
-      <c r="H78" s="134"/>
-      <c r="I78" s="136"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="132"/>
+      <c r="H78" s="132"/>
+      <c r="I78" s="134"/>
     </row>
     <row r="79" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="143"/>
-      <c r="B79" s="140" t="s">
+      <c r="A79" s="141"/>
+      <c r="B79" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="C79" s="138" t="s">
-        <v>238</v>
+      <c r="C79" s="136" t="s">
+        <v>225</v>
       </c>
       <c r="D79" s="85"/>
-      <c r="E79" s="105"/>
+      <c r="E79" s="103"/>
       <c r="F79" s="33" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
-      <c r="G79" s="137"/>
-      <c r="H79" s="138" t="s">
+      <c r="G79" s="135"/>
+      <c r="H79" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="I79" s="146" t="s">
+      <c r="I79" s="144" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="143"/>
-      <c r="B80" s="141"/>
-      <c r="C80" s="139"/>
+      <c r="A80" s="141"/>
+      <c r="B80" s="139"/>
+      <c r="C80" s="137"/>
       <c r="D80" s="15"/>
-      <c r="E80" s="106"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="9" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
-      <c r="G80" s="137"/>
-      <c r="H80" s="145"/>
-      <c r="I80" s="147"/>
+      <c r="G80" s="135"/>
+      <c r="H80" s="143"/>
+      <c r="I80" s="145"/>
     </row>
     <row r="81" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="144"/>
+      <c r="A81" s="142"/>
       <c r="B81" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="C81" s="104" t="s">
-        <v>241</v>
+      <c r="C81" s="102" t="s">
+        <v>228</v>
       </c>
       <c r="D81" s="86"/>
       <c r="E81" s="50" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
-      <c r="F81" s="117" t="s">
+      <c r="F81" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="G81" s="113"/>
-      <c r="H81" s="139"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="137"/>
       <c r="I81" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="114"/>
-      <c r="B82" s="115"/>
+      <c r="A82" s="112"/>
+      <c r="B82" s="113"/>
       <c r="C82" s="84"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="116"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="114"/>
       <c r="G82" s="84"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="110"/>
+      <c r="H82" s="107"/>
+      <c r="I82" s="108"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="114"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="115"/>
-      <c r="H83" s="115"/>
-      <c r="I83" s="115"/>
+      <c r="A83" s="112"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="113"/>
+      <c r="F83" s="113"/>
+      <c r="G83" s="113"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="113"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="114"/>
+      <c r="A84" s="112"/>
       <c r="B84" s="64"/>
-      <c r="C84" s="107"/>
+      <c r="C84" s="105"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="107"/>
+      <c r="E84" s="105"/>
       <c r="F84" s="66"/>
       <c r="G84" s="84"/>
-      <c r="H84" s="111"/>
-      <c r="I84" s="112"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="110"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="108"/>
+      <c r="A85" s="106"/>
       <c r="B85" s="64"/>
-      <c r="C85" s="107"/>
+      <c r="C85" s="105"/>
       <c r="D85" s="28"/>
-      <c r="E85" s="107"/>
+      <c r="E85" s="105"/>
       <c r="F85" s="28"/>
       <c r="G85" s="66"/>
-      <c r="H85" s="107"/>
+      <c r="H85" s="105"/>
       <c r="I85" s="66"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -36823,13 +36916,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E95172A-55A5-494B-A736-9F25FB2C070A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.4140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.4140625" style="101" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.9140625" style="88" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="88" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" style="89" customWidth="1"/>
@@ -36843,375 +36936,375 @@
     <col min="12" max="16384" width="8.6640625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="102" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:11" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="120" t="s">
+      <c r="J1" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="118" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="36" x14ac:dyDescent="0.2">
-      <c r="A2" s="245">
+      <c r="A2" s="243">
         <v>1</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="245" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="250" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="242" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="242" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="252" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="242" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="242" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="242" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A3" s="243"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+    </row>
+    <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="243"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+    </row>
+    <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="243"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A6" s="243"/>
+      <c r="B6" s="246"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
+    </row>
+    <row r="7" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="243"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="94" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+    </row>
+    <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A8" s="244">
+        <v>2</v>
+      </c>
+      <c r="B8" s="247" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="251"/>
+      <c r="D8" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="255" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="241" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="241" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="241" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="242"/>
+    </row>
+    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="244"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="242"/>
+    </row>
+    <row r="10" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="244"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="242"/>
+    </row>
+    <row r="11" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="244"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="255"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="242"/>
+    </row>
+    <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="244"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="255"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="242"/>
+    </row>
+    <row r="13" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A13" s="244"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="242"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="255"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="242"/>
+    </row>
+    <row r="14" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="244"/>
+      <c r="B14" s="249"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="255"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="242"/>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="243">
+        <v>3</v>
+      </c>
+      <c r="B15" s="242" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="250"/>
+      <c r="D15" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="242" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="242" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="252" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="249" t="s">
+      <c r="H15" s="242" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="242" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="242" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="242"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="243"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="242"/>
+    </row>
+    <row r="17" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="119">
+        <v>4</v>
+      </c>
+      <c r="B17" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>198</v>
+      <c r="C17" s="120"/>
+      <c r="D17" s="257" t="s">
+        <v>243</v>
       </c>
-      <c r="E2" s="244" t="s">
-        <v>204</v>
+      <c r="E17" s="125" t="s">
+        <v>217</v>
       </c>
-      <c r="F2" s="244" t="s">
-        <v>104</v>
+      <c r="F17" s="125" t="s">
+        <v>218</v>
       </c>
-      <c r="G2" s="251" t="s">
-        <v>206</v>
+      <c r="G17" s="123" t="s">
+        <v>214</v>
       </c>
-      <c r="H2" s="244" t="s">
-        <v>208</v>
+      <c r="H17" s="125" t="s">
+        <v>211</v>
       </c>
-      <c r="I2" s="244" t="s">
-        <v>209</v>
-      </c>
-      <c r="J2" s="244" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="244" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.2">
-      <c r="A3" s="245"/>
-      <c r="B3" s="248"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-    </row>
-    <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="245"/>
-      <c r="B4" s="248"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-    </row>
-    <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="245"/>
-      <c r="B5" s="248"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
-    </row>
-    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="245"/>
-      <c r="B6" s="248"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="93" t="s">
+      <c r="I17" s="125" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
-    </row>
-    <row r="7" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="245"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="94" t="s">
-        <v>203</v>
+      <c r="J17" s="125" t="s">
+        <v>220</v>
       </c>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-    </row>
-    <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.2">
-      <c r="A8" s="246">
-        <v>2</v>
+      <c r="K17" s="242"/>
+    </row>
+    <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="121">
+        <v>5</v>
       </c>
-      <c r="B8" s="254" t="s">
+      <c r="B18" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="122"/>
+      <c r="D18" s="256" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="124" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="257" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="243" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" s="243" t="s">
-        <v>209</v>
-      </c>
-      <c r="J8" s="243" t="s">
-        <v>207</v>
-      </c>
-      <c r="K8" s="244"/>
-    </row>
-    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.2">
-      <c r="A9" s="246"/>
-      <c r="B9" s="255"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="244"/>
-    </row>
-    <row r="10" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="246"/>
-      <c r="B10" s="255"/>
-      <c r="C10" s="250"/>
-      <c r="D10" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="244"/>
-    </row>
-    <row r="11" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="246"/>
-      <c r="B11" s="255"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="244"/>
-    </row>
-    <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="246"/>
-      <c r="B12" s="255"/>
-      <c r="C12" s="250"/>
-      <c r="D12" s="99" t="s">
+      <c r="I18" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="243"/>
-      <c r="J12" s="243"/>
-      <c r="K12" s="244"/>
-    </row>
-    <row r="13" spans="1:11" ht="36" x14ac:dyDescent="0.2">
-      <c r="A13" s="246"/>
-      <c r="B13" s="255"/>
-      <c r="C13" s="250"/>
-      <c r="D13" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="257"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="243"/>
-      <c r="J13" s="243"/>
-      <c r="K13" s="244"/>
-    </row>
-    <row r="14" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="246"/>
-      <c r="B14" s="256"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="257"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="243"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="244"/>
-    </row>
-    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="245">
-        <v>3</v>
-      </c>
-      <c r="B15" s="244" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="249"/>
-      <c r="D15" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="244" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="244" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" s="251" t="s">
+      <c r="J18" s="126" t="s">
         <v>221</v>
       </c>
-      <c r="H15" s="244" t="s">
-        <v>222</v>
-      </c>
-      <c r="I15" s="244" t="s">
-        <v>209</v>
-      </c>
-      <c r="J15" s="244" t="s">
-        <v>223</v>
-      </c>
-      <c r="K15" s="244"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="245"/>
-      <c r="B16" s="244"/>
-      <c r="C16" s="250"/>
-      <c r="D16" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="244"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="252"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="244"/>
-      <c r="K16" s="244"/>
-    </row>
-    <row r="17" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="121">
-        <v>4</v>
-      </c>
-      <c r="B17" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="127" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="127" t="s">
-        <v>222</v>
-      </c>
-      <c r="I17" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="J17" s="127" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" s="244"/>
-    </row>
-    <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="123">
-        <v>5</v>
-      </c>
-      <c r="B18" s="128" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="97" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="128" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="128" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="126" t="s">
-        <v>229</v>
-      </c>
-      <c r="H18" s="128" t="s">
-        <v>222</v>
-      </c>
-      <c r="I18" s="128" t="s">
-        <v>209</v>
-      </c>
-      <c r="J18" s="128" t="s">
-        <v>234</v>
-      </c>
-      <c r="K18" s="244"/>
+      <c r="K18" s="242"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D19" s="91"/>
@@ -37250,8 +37343,10 @@
     <hyperlink ref="G15" r:id="rId3" xr:uid="{417E4745-3A61-415B-A6BC-5081E16E03A9}"/>
     <hyperlink ref="G17" r:id="rId4" xr:uid="{CBB893F0-06CA-4205-AB03-87F55ECE6289}"/>
     <hyperlink ref="G18" r:id="rId5" xr:uid="{D344EAD3-45DF-4E70-B642-7B220C1A497A}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{3DB29A08-488A-454E-87D3-BE57BC525611}"/>
+    <hyperlink ref="D18" r:id="rId7" xr:uid="{0F9264F5-02CB-4A59-98F7-BF14BD2BD5D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>